--- a/Source Data.xlsx
+++ b/Source Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\BaiduSyncdisk\2023\Science10_Volcanic and ENSO teleconnections\Manuscript\Submission_20250801\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\BaiduSyncdisk\2023\Science10_Volcanic and ENSO teleconnections\Manuscript\Submission_20250910\Code_20250825\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA5608-9775-470C-93AF-66B0E045EFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E2FAA-A77C-4B73-922C-1DF859578331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="1560" windowWidth="30900" windowHeight="18495" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13470" yWindow="1725" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="59">
   <si>
     <t>year</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>CESM2</t>
-  </si>
-  <si>
-    <t>CESM2-WACCM</t>
   </si>
   <si>
     <t>CESM2-WACCM-FV2</t>
@@ -2388,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD75EDD-F396-40D6-9801-8A64F1FB65C2}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2417,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>0.53730284891041802</v>
+        <v>0.54074474091892499</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2428,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>0.65964712165542805</v>
+        <v>0.72485888627476402</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2439,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>0.167548756287799</v>
+        <v>0.181265789369601</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2450,7 +2447,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>0.25271792890109002</v>
+        <v>0.23195830121886599</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2461,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>3.6595825888240299E-2</v>
+        <v>2.72105459587921E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2472,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>0.19222878585882999</v>
+        <v>0.18205421738984401</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2483,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>0.74455027366445603</v>
+        <v>0.74957674389292195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2494,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>0.69962993349574798</v>
+        <v>0.68105839177389405</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>0.54612587636031096</v>
+        <v>0.54926358727061897</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2516,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>0.62283493561461101</v>
+        <v>0.62767206305762901</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2527,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>0.48577544518042198</v>
+        <v>0.52606244483976194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>0.56985039177626595</v>
+        <v>0.11138035615394599</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2549,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>0.52519770112748598</v>
+        <v>0.69854546854029997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2560,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>0.116249606743457</v>
+        <v>0.51476535795686595</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2571,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>0.68945412925176697</v>
+        <v>0.68958578163721695</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2582,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>0.53540059458634104</v>
+        <v>0.60821956738238003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2593,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>0.69617120065460003</v>
+        <v>0.57082333974718402</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>0.57208864430427897</v>
+        <v>0.41992467056149801</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2615,7 +2612,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>0.57879304096053497</v>
+        <v>0.36556905616803798</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2626,7 +2623,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>0.52824384734422103</v>
+        <v>0.413588760651247</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>0.35996152481613403</v>
+        <v>0.41939001186584601</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2648,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>0.42477261902541202</v>
+        <v>0.55390215689692501</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2659,7 +2656,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>0.43011658551410797</v>
+        <v>0.76295806272343103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2670,7 +2667,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>0.57879785332088995</v>
+        <v>0.38637535696808101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2681,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>0.75619630233592205</v>
+        <v>0.56021570556766698</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>0.48565410405218301</v>
+        <v>0.53531038884312798</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,7 +2700,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>0.56993534291097503</v>
+        <v>0.54202276137842698</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2714,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>0.540240154652184</v>
+        <v>0.66704619477365301</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2725,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>0.54879632934191602</v>
+        <v>0.47684534997487799</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2736,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>0.62552464243466599</v>
+        <v>0.32262242937555202</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2747,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>0.474491991983851</v>
+        <v>0.286487636328564</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2758,7 +2755,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>0.31850326259910999</v>
+        <v>0.594120236399996</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>0.27753268538665898</v>
+        <v>0.48365582535565999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,7 +2777,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="3">
-        <v>0.579244250959843</v>
+        <v>0.606689009212658</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>0.48053499612355499</v>
+        <v>0.397593315081121</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,7 +2799,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="3">
-        <v>0.62668567191737001</v>
+        <v>0.37554194610993102</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>0.36802371304325998</v>
+        <v>0.46942742759769002</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,7 +2821,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="3">
-        <v>0.45355434734331401</v>
+        <v>0.567574189591873</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,7 +2832,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>0.47249415307659998</v>
+        <v>0.31868637183936199</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="3">
-        <v>0.57664305426076301</v>
+        <v>-0.122032568667494</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3">
-        <v>0.34037911451371</v>
+        <v>0.79963201783358295</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="3">
-        <v>-0.11424980428893899</v>
+        <v>0.74312322756792104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>0.79872969053641596</v>
+        <v>0.38464903764610198</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="3">
-        <v>0.74256335566597997</v>
+        <v>0.380583785934202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>0.38263218038949798</v>
+        <v>0.61203576717007702</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,7 +2909,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="3">
-        <v>0.36578386377876598</v>
+        <v>0.44481216710807803</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>0.61977113345906598</v>
+        <v>0.32510410340786799</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,7 +2931,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="3">
-        <v>0.38682020220069402</v>
+        <v>0.38603710918001199</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>0.31968686320712297</v>
+        <v>0.46834551654829398</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,30 +2953,18 @@
         <v>5</v>
       </c>
       <c r="C51" s="3">
-        <v>0.40530382057470599</v>
+        <v>0.63576000235381502</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.48231833693585402</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.60846938093546898</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3010,12 +2995,12 @@
         <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -3029,7 +3014,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -3043,7 +3028,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -3057,7 +3042,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -3071,7 +3056,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -3085,7 +3070,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -3099,7 +3084,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -3113,7 +3098,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -3134,7 +3119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1263FC10-B8F5-4DE7-A92B-FA9531908728}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
@@ -3149,19 +3134,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
